--- a/CorrectLink/ig/StructureDefinition-FrOnAdmissionMedicationComposition.xlsx
+++ b/CorrectLink/ig/StructureDefinition-FrOnAdmissionMedicationComposition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2318" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2312" uniqueCount="472">
   <si>
     <t>Property</t>
   </si>
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -331,17 +331,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Composition.implicitRules</t>
   </si>
   <si>
@@ -361,9 +354,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Composition.language</t>
   </si>
   <si>
@@ -441,6 +431,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Composition.extension</t>
   </si>
   <si>
@@ -461,16 +454,6 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -554,6 +537,9 @@
   </si>
   <si>
     <t>interim: .completionCode="IN" &amp; ./statusCode[isNormalDatatype()]="active";  final: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and not(./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct()]);  amended: .completionCode="AU" &amp;&amp;  ./statusCode[isNormalDatatype()]="complete" and ./inboundRelationship[typeCode="SUBJ" and isNormalActRelationship()]/source[subsumesCode("ActClass#CACT") and moodCode="EVN" and domainMember("ReviseComposition", code) and isNormalAct() and statusCode="completed"];  withdrawn : .completionCode=NI &amp;&amp;  ./statusCode[isNormalDatatype()]="obsolete"</t>
+  </si>
+  <si>
+    <t>n/a</t>
   </si>
   <si>
     <t>DocumentReference.status</t>
@@ -666,10 +652,6 @@
     <t>Identifier le patient auquel se rapporte obligatoirement un Traitement Médicamenteux Courant, patient référencé en tant que ressource *Patient* profilée *fr-patient*\.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>.participation[typeCode="SBJ"].role[typeCode="PAT"]</t>
   </si>
   <si>
@@ -704,6 +686,16 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -722,8 +714,8 @@
     <t>Reference.reference</t>
   </si>
   <si>
-    <t>ele-1
-ref-1</t>
+    <t xml:space="preserve">ref-1
+</t>
   </si>
   <si>
     <t>Composition.subject.type</t>
@@ -800,9 +792,6 @@
     <t>Describes the clinical encounter or type of care this documentation is associated with.</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Provides context for the composition and supports searching.</t>
   </si>
   <si>
@@ -997,9 +986,6 @@
     <t>The type of attestation the authenticator offers.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Indicates the level of authority of the attestation.</t>
   </si>
   <si>
@@ -1228,14 +1214,6 @@
     <t>The period of time covered by the documentation. There is no assertion that the documentation is a complete representation for this period, only that it documents events during this time.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
-  </si>
-  <si>
     <t>DocumentReference.event.period</t>
   </si>
   <si>
@@ -1270,8 +1248,8 @@
     <t>Fournir la liste des prescriptions médicamenteuses en cours.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
+    <t>cmp-1:A section must contain at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}
+cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
@@ -1365,9 +1343,6 @@
     <t>Le Traitement Médicamenteux Courant ne concerne que le patient auquel se rapporte ce document (voir element *subject* de la *Composition*\).</t>
   </si>
   <si>
-    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
-  </si>
-  <si>
     <t>.subject? (CDA did not differentiate between subject and focus)</t>
   </si>
   <si>
@@ -1383,8 +1358,8 @@
     <t>Document profiles may define what content should be represented in the narrative to ensure clinical safety.</t>
   </si>
   <si>
-    <t>ele-1
-cmp-1</t>
+    <t xml:space="preserve">cmp-1
+</t>
   </si>
   <si>
     <t>.text</t>
@@ -1460,8 +1435,8 @@
     <t>Porter les lignes du traitement médicamenteux courant.</t>
   </si>
   <si>
-    <t>ele-1
-cmp-2</t>
+    <t xml:space="preserve">cmp-2
+</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP] or  .participation[typeCode=SBJ]</t>
@@ -1504,10 +1479,6 @@
   </si>
   <si>
     <t>Nested sections are primarily used to help human readers navigate to particular portions of the document.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cmp-1
-</t>
   </si>
   <si>
     <t>.component.section</t>
@@ -2336,16 +2307,16 @@
         <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>19</v>
@@ -2359,10 +2330,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2385,16 +2356,16 @@
         <v>81</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2444,7 +2415,7 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
@@ -2453,16 +2424,16 @@
         <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>19</v>
@@ -2476,10 +2447,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2502,16 +2473,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2537,32 +2508,32 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
@@ -2570,16 +2541,16 @@
         <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>19</v>
@@ -2593,14 +2564,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2619,16 +2590,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2678,7 +2649,7 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -2687,16 +2658,16 @@
         <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>19</v>
@@ -2710,14 +2681,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2736,16 +2707,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2795,7 +2766,7 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -2813,7 +2784,7 @@
         <v>19</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>19</v>
@@ -2827,14 +2798,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2853,16 +2824,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2900,19 +2871,19 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -2921,16 +2892,16 @@
         <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>19</v>
@@ -2944,14 +2915,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2970,19 +2941,19 @@
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -3019,19 +2990,19 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -3040,16 +3011,16 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>19</v>
@@ -3063,10 +3034,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3089,16 +3060,16 @@
         <v>81</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3148,42 +3119,42 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="AG11" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK11" t="s" s="2">
-        <v>158</v>
-      </c>
       <c r="AL11" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3206,19 +3177,19 @@
         <v>81</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3243,66 +3214,66 @@
         <v>19</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AO12" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3325,103 +3296,103 @@
         <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="O13" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="S13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="T13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="S13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="T13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3444,19 +3415,19 @@
         <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3481,13 +3452,13 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>19</v>
@@ -3505,7 +3476,7 @@
         <v>19</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3514,33 +3485,33 @@
         <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3563,19 +3534,19 @@
         <v>81</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O15" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3624,7 +3595,7 @@
         <v>19</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3633,33 +3604,33 @@
         <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3682,13 +3653,13 @@
         <v>19</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3739,7 +3710,7 @@
         <v>19</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3757,7 +3728,7 @@
         <v>19</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>19</v>
@@ -3771,14 +3742,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3797,16 +3768,16 @@
         <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3844,19 +3815,19 @@
         <v>19</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>144</v>
+        <v>215</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3865,16 +3836,16 @@
         <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>19</v>
@@ -3888,10 +3859,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3914,16 +3885,16 @@
         <v>81</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3973,7 +3944,7 @@
         <v>19</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3982,16 +3953,16 @@
         <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>19</v>
@@ -4005,10 +3976,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4031,16 +4002,16 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4051,47 +4022,47 @@
         <v>19</v>
       </c>
       <c r="S19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="Z19" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="T19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Y19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="Z19" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
@@ -4099,16 +4070,16 @@
         <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ19" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>19</v>
@@ -4122,10 +4093,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4148,16 +4119,16 @@
         <v>81</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="N20" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>237</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4207,7 +4178,7 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4216,16 +4187,16 @@
         <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ20" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>19</v>
@@ -4239,10 +4210,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4265,16 +4236,16 @@
         <v>81</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>243</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4324,7 +4295,7 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4333,16 +4304,16 @@
         <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>19</v>
@@ -4356,10 +4327,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4382,19 +4353,17 @@
         <v>81</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>19</v>
@@ -4443,7 +4412,7 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4452,33 +4421,33 @@
         <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AK22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>255</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4501,19 +4470,19 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4562,7 +4531,7 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>92</v>
@@ -4571,33 +4540,33 @@
         <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ23" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK23" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="AL23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>266</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4620,19 +4589,19 @@
         <v>81</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4681,7 +4650,7 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>92</v>
@@ -4690,33 +4659,33 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ24" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AK24" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM24" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4739,16 +4708,16 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4759,70 +4728,70 @@
         <v>19</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM25" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>19</v>
@@ -4830,10 +4799,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4856,16 +4825,16 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4891,55 +4860,55 @@
         <v>19</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>19</v>
@@ -4947,10 +4916,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4973,19 +4942,19 @@
         <v>19</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N27" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5034,7 +5003,7 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5043,22 +5012,22 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ27" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
@@ -5066,10 +5035,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5092,13 +5061,13 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5149,7 +5118,7 @@
         <v>19</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5167,7 +5136,7 @@
         <v>19</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>19</v>
@@ -5181,14 +5150,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5207,16 +5176,16 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N29" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5254,19 +5223,19 @@
         <v>19</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5275,16 +5244,16 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>19</v>
@@ -5298,14 +5267,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5324,19 +5293,19 @@
         <v>81</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5385,7 +5354,7 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5394,16 +5363,16 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>19</v>
@@ -5417,10 +5386,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5443,19 +5412,17 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>19</v>
@@ -5480,13 +5447,13 @@
         <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>19</v>
@@ -5504,7 +5471,7 @@
         <v>19</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>92</v>
@@ -5513,19 +5480,19 @@
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ31" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>19</v>
@@ -5536,10 +5503,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5562,17 +5529,17 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5621,28 +5588,28 @@
         <v>19</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>19</v>
@@ -5653,10 +5620,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5679,19 +5646,17 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>19</v>
@@ -5740,42 +5705,42 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5798,19 +5763,19 @@
         <v>81</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O34" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>19</v>
@@ -5859,7 +5824,7 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5868,22 +5833,22 @@
         <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ34" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>19</v>
@@ -5891,10 +5856,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5917,16 +5882,16 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -5976,7 +5941,7 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5985,22 +5950,22 @@
         <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -6008,10 +5973,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6034,13 +5999,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6091,7 +6056,7 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6109,7 +6074,7 @@
         <v>19</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>19</v>
@@ -6123,14 +6088,14 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -6149,16 +6114,16 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N37" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6196,19 +6161,19 @@
         <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6217,16 +6182,16 @@
         <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>19</v>
@@ -6240,14 +6205,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6266,19 +6231,19 @@
         <v>81</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6327,7 +6292,7 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6336,16 +6301,16 @@
         <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>19</v>
@@ -6359,10 +6324,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6385,16 +6350,16 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6420,55 +6385,55 @@
         <v>19</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -6476,10 +6441,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6502,13 +6467,13 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6559,31 +6524,31 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AM40" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6591,10 +6556,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6617,19 +6582,19 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6678,7 +6643,7 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6687,22 +6652,22 @@
         <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>19</v>
@@ -6710,10 +6675,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6736,13 +6701,13 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6793,7 +6758,7 @@
         <v>19</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6811,7 +6776,7 @@
         <v>19</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>19</v>
@@ -6825,14 +6790,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6851,16 +6816,16 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N43" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6898,19 +6863,19 @@
         <v>19</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6919,16 +6884,16 @@
         <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>19</v>
@@ -6942,14 +6907,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6968,19 +6933,19 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -7029,7 +6994,7 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7038,16 +7003,16 @@
         <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>19</v>
@@ -7061,10 +7026,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7087,16 +7052,16 @@
         <v>81</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7122,13 +7087,13 @@
         <v>19</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>19</v>
@@ -7146,7 +7111,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7155,22 +7120,22 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7178,10 +7143,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7204,17 +7169,15 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>19</v>
@@ -7263,31 +7226,31 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>19</v>
@@ -7295,10 +7258,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7321,17 +7284,15 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7380,7 +7341,7 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7389,19 +7350,19 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>19</v>
@@ -7412,10 +7373,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7438,19 +7399,19 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>19</v>
@@ -7499,7 +7460,7 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7508,19 +7469,19 @@
         <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>19</v>
@@ -7531,10 +7492,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7557,13 +7518,13 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7614,7 +7575,7 @@
         <v>19</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7632,7 +7593,7 @@
         <v>19</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>19</v>
@@ -7646,14 +7607,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7672,16 +7633,16 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7719,19 +7680,19 @@
         <v>19</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>143</v>
+        <v>19</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>144</v>
+        <v>19</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7740,16 +7701,16 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>19</v>
@@ -7763,14 +7724,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7789,19 +7750,19 @@
         <v>81</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7850,7 +7811,7 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7859,16 +7820,16 @@
         <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>19</v>
@@ -7882,14 +7843,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7908,19 +7869,19 @@
         <v>19</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -7930,7 +7891,7 @@
         <v>19</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="T52" t="s" s="2">
         <v>19</v>
@@ -7969,7 +7930,7 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7978,19 +7939,19 @@
         <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>19</v>
@@ -8001,10 +7962,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8027,19 +7988,19 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8064,13 +8025,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -8088,7 +8049,7 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8097,19 +8058,19 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ53" t="s" s="2">
-        <v>104</v>
-      </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>19</v>
@@ -8120,10 +8081,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8146,19 +8107,17 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8207,7 +8166,7 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8216,33 +8175,33 @@
         <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AO54" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8265,19 +8224,19 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8326,7 +8285,7 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8335,19 +8294,19 @@
         <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>207</v>
-      </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>432</v>
+        <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>19</v>
@@ -8358,10 +8317,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8384,16 +8343,16 @@
         <v>19</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8443,7 +8402,7 @@
         <v>19</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8452,19 +8411,19 @@
         <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>19</v>
@@ -8475,10 +8434,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8501,19 +8460,19 @@
         <v>19</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>19</v>
@@ -8523,7 +8482,7 @@
         <v>19</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>19</v>
@@ -8538,66 +8497,66 @@
         <v>19</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AN57" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8620,19 +8579,19 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>19</v>
@@ -8657,13 +8616,13 @@
         <v>19</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>19</v>
@@ -8681,28 +8640,28 @@
         <v>19</v>
       </c>
       <c r="AF58" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL58" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AG58" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>456</v>
-      </c>
       <c r="AM58" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>19</v>
@@ -8713,10 +8672,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8739,19 +8698,19 @@
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>19</v>
@@ -8800,7 +8759,7 @@
         <v>19</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -8809,19 +8768,19 @@
         <v>80</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>207</v>
+        <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>19</v>
@@ -8832,10 +8791,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8858,19 +8817,19 @@
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>19</v>
@@ -8895,13 +8854,13 @@
         <v>19</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>19</v>
@@ -8919,28 +8878,28 @@
         <v>19</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL60" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AG60" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AM60" t="s" s="2">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>19</v>
@@ -8951,10 +8910,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8980,13 +8939,13 @@
         <v>19</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9036,7 +8995,7 @@
         <v>19</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9045,19 +9004,19 @@
         <v>80</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>478</v>
+        <v>431</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>19</v>
